--- a/April'21/30.04.2021/Bank Statement.xlsx
+++ b/April'21/30.04.2021/Bank Statement.xlsx
@@ -473,7 +473,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="172">
   <si>
     <t>Bank Guarantee</t>
   </si>
@@ -919,33 +919,15 @@
     <t>31.03.2021</t>
   </si>
   <si>
-    <t>01.04.2021</t>
-  </si>
-  <si>
     <t>31/30.03.2021</t>
   </si>
   <si>
-    <t>03.04.2021</t>
-  </si>
-  <si>
     <t>04.04.2021</t>
   </si>
   <si>
     <t>sim(109+18)</t>
   </si>
   <si>
-    <t>05.04.2021</t>
-  </si>
-  <si>
-    <t>06.04.2021</t>
-  </si>
-  <si>
-    <t>07.04.2021</t>
-  </si>
-  <si>
-    <t>08.04.2021</t>
-  </si>
-  <si>
     <t>Mamun</t>
   </si>
   <si>
@@ -964,36 +946,12 @@
     <t>01908446145</t>
   </si>
   <si>
-    <t>10.04.2021</t>
-  </si>
-  <si>
-    <t>11.04.2021</t>
-  </si>
-  <si>
-    <t>12.04.2021</t>
-  </si>
-  <si>
-    <t>13.04.2021</t>
-  </si>
-  <si>
-    <t>17.04.2021</t>
-  </si>
-  <si>
-    <t>15.04.2021</t>
-  </si>
-  <si>
-    <t>18.04.2021</t>
-  </si>
-  <si>
     <t>Ramjan</t>
   </si>
   <si>
     <t>01908446136</t>
   </si>
   <si>
-    <t>19.04.2021</t>
-  </si>
-  <si>
     <t>Ankur</t>
   </si>
   <si>
@@ -1003,9 +961,6 @@
     <t>01908-446151</t>
   </si>
   <si>
-    <t>20.04.2021</t>
-  </si>
-  <si>
     <t>12/20/14.03.2021</t>
   </si>
   <si>
@@ -1015,49 +970,25 @@
     <t>Rubel</t>
   </si>
   <si>
-    <t>21.04.2021</t>
-  </si>
-  <si>
     <t>Fahim</t>
   </si>
   <si>
     <t>04/05/04.21(1873)24.03.2021</t>
   </si>
   <si>
-    <t>22.04.2021</t>
-  </si>
-  <si>
-    <t>24.04.2021</t>
-  </si>
-  <si>
-    <t>25.04.2021</t>
-  </si>
-  <si>
     <t>Date :26-04-2021</t>
   </si>
   <si>
-    <t>26.04.2021</t>
-  </si>
-  <si>
-    <t>27.04.2021</t>
-  </si>
-  <si>
-    <t>28.04.2021</t>
-  </si>
-  <si>
     <t>29.04.2021</t>
   </si>
   <si>
-    <t>Date:01.05.2021</t>
-  </si>
-  <si>
     <t>28/27.04.2021</t>
   </si>
   <si>
-    <t>30.04.2021</t>
-  </si>
-  <si>
-    <t>Date:30.04.2021</t>
+    <t>Date:02.05.2021</t>
+  </si>
+  <si>
+    <t>02.05.2021</t>
   </si>
 </sst>
 </file>
@@ -3271,6 +3202,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3293,57 +3275,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4055,7 +3986,7 @@
   <dimension ref="A1:Y320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
@@ -4067,70 +3998,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="327" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="335"/>
-      <c r="C1" s="335"/>
-      <c r="D1" s="335"/>
-      <c r="E1" s="335"/>
-      <c r="F1" s="335"/>
-      <c r="G1" s="335"/>
-      <c r="H1" s="335"/>
-      <c r="I1" s="335"/>
-      <c r="J1" s="335"/>
-      <c r="K1" s="335"/>
-      <c r="L1" s="335"/>
-      <c r="M1" s="335"/>
-      <c r="N1" s="335"/>
-      <c r="O1" s="335"/>
-      <c r="P1" s="335"/>
-      <c r="Q1" s="335"/>
-      <c r="R1" s="335"/>
+      <c r="B1" s="327"/>
+      <c r="C1" s="327"/>
+      <c r="D1" s="327"/>
+      <c r="E1" s="327"/>
+      <c r="F1" s="327"/>
+      <c r="G1" s="327"/>
+      <c r="H1" s="327"/>
+      <c r="I1" s="327"/>
+      <c r="J1" s="327"/>
+      <c r="K1" s="327"/>
+      <c r="L1" s="327"/>
+      <c r="M1" s="327"/>
+      <c r="N1" s="327"/>
+      <c r="O1" s="327"/>
+      <c r="P1" s="327"/>
+      <c r="Q1" s="327"/>
+      <c r="R1" s="327"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="336" t="s">
+      <c r="A2" s="328" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="336"/>
-      <c r="C2" s="336"/>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
-      <c r="G2" s="336"/>
-      <c r="H2" s="336"/>
-      <c r="I2" s="336"/>
-      <c r="J2" s="336"/>
-      <c r="K2" s="336"/>
-      <c r="L2" s="336"/>
-      <c r="M2" s="336"/>
-      <c r="N2" s="336"/>
-      <c r="O2" s="336"/>
-      <c r="P2" s="336"/>
-      <c r="Q2" s="336"/>
-      <c r="R2" s="336"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="328"/>
+      <c r="I2" s="328"/>
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
+      <c r="L2" s="328"/>
+      <c r="M2" s="328"/>
+      <c r="N2" s="328"/>
+      <c r="O2" s="328"/>
+      <c r="P2" s="328"/>
+      <c r="Q2" s="328"/>
+      <c r="R2" s="328"/>
     </row>
     <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="345" t="s">
+      <c r="A3" s="337" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="346"/>
-      <c r="R3" s="347"/>
+      <c r="B3" s="338"/>
+      <c r="C3" s="338"/>
+      <c r="D3" s="338"/>
+      <c r="E3" s="338"/>
+      <c r="F3" s="338"/>
+      <c r="G3" s="338"/>
+      <c r="H3" s="338"/>
+      <c r="I3" s="338"/>
+      <c r="J3" s="338"/>
+      <c r="K3" s="338"/>
+      <c r="L3" s="338"/>
+      <c r="M3" s="338"/>
+      <c r="N3" s="338"/>
+      <c r="O3" s="338"/>
+      <c r="P3" s="338"/>
+      <c r="Q3" s="338"/>
+      <c r="R3" s="339"/>
       <c r="T3" s="100"/>
       <c r="U3" s="101"/>
       <c r="V3" s="101"/>
@@ -4139,55 +4070,55 @@
       <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="1:25" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="337" t="s">
+      <c r="A4" s="329" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="339" t="s">
+      <c r="B4" s="331" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="339" t="s">
+      <c r="C4" s="331" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="333" t="s">
+      <c r="D4" s="325" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="333" t="s">
+      <c r="E4" s="325" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="333" t="s">
+      <c r="F4" s="325" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="333" t="s">
+      <c r="G4" s="325" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="333" t="s">
+      <c r="H4" s="325" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="333" t="s">
+      <c r="I4" s="325" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="333" t="s">
+      <c r="J4" s="325" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="348" t="s">
+      <c r="K4" s="340" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="325" t="s">
+      <c r="L4" s="342" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="327" t="s">
+      <c r="M4" s="344" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="329" t="s">
+      <c r="N4" s="346" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="331" t="s">
+      <c r="O4" s="348" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="341" t="s">
+      <c r="P4" s="333" t="s">
         <v>128</v>
       </c>
-      <c r="Q4" s="343" t="s">
+      <c r="Q4" s="335" t="s">
         <v>129</v>
       </c>
       <c r="R4" s="103" t="s">
@@ -4200,23 +4131,23 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="338"/>
-      <c r="B5" s="340"/>
-      <c r="C5" s="340"/>
-      <c r="D5" s="334"/>
-      <c r="E5" s="334"/>
-      <c r="F5" s="334"/>
-      <c r="G5" s="334"/>
-      <c r="H5" s="334"/>
-      <c r="I5" s="334"/>
-      <c r="J5" s="334"/>
-      <c r="K5" s="349"/>
-      <c r="L5" s="326"/>
-      <c r="M5" s="328"/>
-      <c r="N5" s="330"/>
-      <c r="O5" s="332"/>
-      <c r="P5" s="342"/>
-      <c r="Q5" s="344"/>
+      <c r="A5" s="330"/>
+      <c r="B5" s="332"/>
+      <c r="C5" s="332"/>
+      <c r="D5" s="326"/>
+      <c r="E5" s="326"/>
+      <c r="F5" s="326"/>
+      <c r="G5" s="326"/>
+      <c r="H5" s="326"/>
+      <c r="I5" s="326"/>
+      <c r="J5" s="326"/>
+      <c r="K5" s="341"/>
+      <c r="L5" s="343"/>
+      <c r="M5" s="345"/>
+      <c r="N5" s="347"/>
+      <c r="O5" s="349"/>
+      <c r="P5" s="334"/>
+      <c r="Q5" s="336"/>
       <c r="R5" s="105" t="s">
         <v>34</v>
       </c>
@@ -4229,22 +4160,22 @@
     </row>
     <row r="6" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="109" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="B6" s="110"/>
-      <c r="C6" s="111"/>
+      <c r="C6" s="111">
+        <v>380</v>
+      </c>
       <c r="D6" s="111"/>
       <c r="E6" s="111"/>
       <c r="F6" s="111"/>
       <c r="G6" s="111">
-        <v>1805</v>
+        <v>1984</v>
       </c>
       <c r="H6" s="111"/>
       <c r="I6" s="111"/>
       <c r="J6" s="111"/>
-      <c r="K6" s="111">
-        <v>130</v>
-      </c>
+      <c r="K6" s="111"/>
       <c r="L6" s="111"/>
       <c r="M6" s="111"/>
       <c r="N6" s="111"/>
@@ -4253,7 +4184,7 @@
       <c r="Q6" s="112"/>
       <c r="R6" s="113">
         <f>SUM(B6:Q6)</f>
-        <v>1935</v>
+        <v>2364</v>
       </c>
       <c r="S6" s="114"/>
       <c r="T6" s="106"/>
@@ -4263,17 +4194,13 @@
       <c r="X6" s="101"/>
     </row>
     <row r="7" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109" t="s">
-        <v>150</v>
-      </c>
+      <c r="A7" s="109"/>
       <c r="B7" s="110"/>
       <c r="C7" s="111"/>
       <c r="D7" s="111"/>
       <c r="E7" s="111"/>
       <c r="F7" s="111"/>
-      <c r="G7" s="111">
-        <v>1775</v>
-      </c>
+      <c r="G7" s="111"/>
       <c r="H7" s="111"/>
       <c r="I7" s="111"/>
       <c r="J7" s="111"/>
@@ -4286,7 +4213,7 @@
       <c r="Q7" s="112"/>
       <c r="R7" s="113">
         <f>SUM(B7:Q7)</f>
-        <v>1775</v>
+        <v>0</v>
       </c>
       <c r="S7" s="114"/>
       <c r="T7" s="107"/>
@@ -4296,19 +4223,13 @@
       <c r="X7" s="107"/>
     </row>
     <row r="8" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109" t="s">
-        <v>151</v>
-      </c>
+      <c r="A8" s="109"/>
       <c r="B8" s="115"/>
-      <c r="C8" s="116">
-        <v>860</v>
-      </c>
+      <c r="C8" s="116"/>
       <c r="D8" s="116"/>
       <c r="E8" s="116"/>
       <c r="F8" s="116"/>
-      <c r="G8" s="116">
-        <v>2286</v>
-      </c>
+      <c r="G8" s="116"/>
       <c r="H8" s="116"/>
       <c r="I8" s="116"/>
       <c r="J8" s="116"/>
@@ -4321,7 +4242,7 @@
       <c r="Q8" s="118"/>
       <c r="R8" s="113">
         <f t="shared" ref="R8:R36" si="0">SUM(B8:Q8)</f>
-        <v>3146</v>
+        <v>0</v>
       </c>
       <c r="S8" s="114"/>
       <c r="T8" s="119"/>
@@ -4333,17 +4254,13 @@
       <c r="X8" s="101"/>
     </row>
     <row r="9" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="109" t="s">
-        <v>153</v>
-      </c>
+      <c r="A9" s="109"/>
       <c r="B9" s="115"/>
       <c r="C9" s="116"/>
       <c r="D9" s="116"/>
       <c r="E9" s="116"/>
       <c r="F9" s="116"/>
-      <c r="G9" s="116">
-        <v>1852</v>
-      </c>
+      <c r="G9" s="116"/>
       <c r="H9" s="116"/>
       <c r="I9" s="116"/>
       <c r="J9" s="116"/>
@@ -4356,7 +4273,7 @@
       <c r="Q9" s="118"/>
       <c r="R9" s="113">
         <f t="shared" si="0"/>
-        <v>1852</v>
+        <v>0</v>
       </c>
       <c r="S9" s="114"/>
       <c r="T9" s="119"/>
@@ -4366,19 +4283,13 @@
       <c r="X9" s="107"/>
     </row>
     <row r="10" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="109" t="s">
-        <v>154</v>
-      </c>
+      <c r="A10" s="109"/>
       <c r="B10" s="115"/>
-      <c r="C10" s="116">
-        <v>400</v>
-      </c>
+      <c r="C10" s="116"/>
       <c r="D10" s="116"/>
       <c r="E10" s="116"/>
       <c r="F10" s="116"/>
-      <c r="G10" s="116">
-        <v>1908</v>
-      </c>
+      <c r="G10" s="116"/>
       <c r="H10" s="116"/>
       <c r="I10" s="116"/>
       <c r="J10" s="116"/>
@@ -4391,7 +4302,7 @@
       <c r="Q10" s="118"/>
       <c r="R10" s="113">
         <f>SUM(B10:Q10)</f>
-        <v>2308</v>
+        <v>0</v>
       </c>
       <c r="S10" s="114"/>
       <c r="T10" s="107"/>
@@ -4401,17 +4312,13 @@
       <c r="X10" s="101"/>
     </row>
     <row r="11" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="109" t="s">
-        <v>155</v>
-      </c>
+      <c r="A11" s="109"/>
       <c r="B11" s="115"/>
       <c r="C11" s="116"/>
       <c r="D11" s="116"/>
       <c r="E11" s="116"/>
       <c r="F11" s="116"/>
-      <c r="G11" s="116">
-        <v>2082</v>
-      </c>
+      <c r="G11" s="116"/>
       <c r="H11" s="116"/>
       <c r="I11" s="116"/>
       <c r="J11" s="116"/>
@@ -4424,7 +4331,7 @@
       <c r="Q11" s="118"/>
       <c r="R11" s="113">
         <f t="shared" si="0"/>
-        <v>2082</v>
+        <v>0</v>
       </c>
       <c r="S11" s="114"/>
       <c r="T11" s="107"/>
@@ -4434,17 +4341,13 @@
       <c r="X11" s="107"/>
     </row>
     <row r="12" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="109" t="s">
-        <v>156</v>
-      </c>
+      <c r="A12" s="109"/>
       <c r="B12" s="115"/>
       <c r="C12" s="116"/>
       <c r="D12" s="116"/>
       <c r="E12" s="116"/>
       <c r="F12" s="116"/>
-      <c r="G12" s="116">
-        <v>2248</v>
-      </c>
+      <c r="G12" s="116"/>
       <c r="H12" s="116"/>
       <c r="I12" s="116"/>
       <c r="J12" s="116"/>
@@ -4457,7 +4360,7 @@
       <c r="Q12" s="118"/>
       <c r="R12" s="113">
         <f t="shared" si="0"/>
-        <v>2248</v>
+        <v>0</v>
       </c>
       <c r="S12" s="114"/>
       <c r="T12" s="107"/>
@@ -4467,19 +4370,13 @@
       <c r="X12" s="101"/>
     </row>
     <row r="13" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="109" t="s">
-        <v>163</v>
-      </c>
+      <c r="A13" s="109"/>
       <c r="B13" s="115"/>
-      <c r="C13" s="116">
-        <v>400</v>
-      </c>
+      <c r="C13" s="116"/>
       <c r="D13" s="116"/>
       <c r="E13" s="116"/>
       <c r="F13" s="116"/>
-      <c r="G13" s="116">
-        <v>2263</v>
-      </c>
+      <c r="G13" s="116"/>
       <c r="H13" s="116"/>
       <c r="I13" s="116"/>
       <c r="J13" s="116"/>
@@ -4492,7 +4389,7 @@
       <c r="Q13" s="118"/>
       <c r="R13" s="113">
         <f t="shared" si="0"/>
-        <v>2663</v>
+        <v>0</v>
       </c>
       <c r="S13" s="114"/>
       <c r="T13" s="106"/>
@@ -4502,21 +4399,13 @@
       <c r="X13" s="107"/>
     </row>
     <row r="14" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="109" t="s">
-        <v>164</v>
-      </c>
+      <c r="A14" s="109"/>
       <c r="B14" s="115"/>
       <c r="C14" s="116"/>
-      <c r="D14" s="116">
-        <v>65</v>
-      </c>
-      <c r="E14" s="116">
-        <v>170</v>
-      </c>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
       <c r="F14" s="116"/>
-      <c r="G14" s="116">
-        <v>1915</v>
-      </c>
+      <c r="G14" s="116"/>
       <c r="H14" s="116"/>
       <c r="I14" s="116"/>
       <c r="J14" s="116"/>
@@ -4529,7 +4418,7 @@
       <c r="Q14" s="118"/>
       <c r="R14" s="113">
         <f t="shared" si="0"/>
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="S14" s="114"/>
       <c r="T14" s="120"/>
@@ -4539,17 +4428,13 @@
       <c r="X14" s="101"/>
     </row>
     <row r="15" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="109" t="s">
-        <v>165</v>
-      </c>
+      <c r="A15" s="109"/>
       <c r="B15" s="115"/>
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
       <c r="E15" s="116"/>
       <c r="F15" s="116"/>
-      <c r="G15" s="116">
-        <v>2339</v>
-      </c>
+      <c r="G15" s="116"/>
       <c r="H15" s="116"/>
       <c r="I15" s="116"/>
       <c r="J15" s="116"/>
@@ -4562,7 +4447,7 @@
       <c r="Q15" s="118"/>
       <c r="R15" s="113">
         <f t="shared" si="0"/>
-        <v>2339</v>
+        <v>0</v>
       </c>
       <c r="S15" s="114"/>
       <c r="T15" s="69"/>
@@ -4572,19 +4457,13 @@
       <c r="X15" s="107"/>
     </row>
     <row r="16" spans="1:25" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109" t="s">
-        <v>166</v>
-      </c>
+      <c r="A16" s="109"/>
       <c r="B16" s="115"/>
       <c r="C16" s="116"/>
       <c r="D16" s="116"/>
-      <c r="E16" s="116">
-        <v>1200</v>
-      </c>
+      <c r="E16" s="116"/>
       <c r="F16" s="116"/>
-      <c r="G16" s="116">
-        <v>2454</v>
-      </c>
+      <c r="G16" s="116"/>
       <c r="H16" s="116"/>
       <c r="I16" s="116"/>
       <c r="J16" s="116"/>
@@ -4597,7 +4476,7 @@
       <c r="Q16" s="118"/>
       <c r="R16" s="113">
         <f t="shared" si="0"/>
-        <v>3654</v>
+        <v>0</v>
       </c>
       <c r="S16" s="114"/>
       <c r="T16" s="69"/>
@@ -4607,19 +4486,13 @@
       <c r="X16" s="101"/>
     </row>
     <row r="17" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109" t="s">
-        <v>167</v>
-      </c>
+      <c r="A17" s="109"/>
       <c r="B17" s="115"/>
-      <c r="C17" s="116">
-        <v>380</v>
-      </c>
+      <c r="C17" s="116"/>
       <c r="D17" s="116"/>
       <c r="E17" s="116"/>
       <c r="F17" s="116"/>
-      <c r="G17" s="116">
-        <v>2449</v>
-      </c>
+      <c r="G17" s="116"/>
       <c r="H17" s="116"/>
       <c r="I17" s="116"/>
       <c r="J17" s="116"/>
@@ -4632,7 +4505,7 @@
       <c r="Q17" s="118"/>
       <c r="R17" s="113">
         <f t="shared" si="0"/>
-        <v>2829</v>
+        <v>0</v>
       </c>
       <c r="S17" s="114"/>
       <c r="T17" s="69"/>
@@ -4642,21 +4515,13 @@
       <c r="X17" s="107"/>
     </row>
     <row r="18" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="109" t="s">
-        <v>169</v>
-      </c>
+      <c r="A18" s="109"/>
       <c r="B18" s="115"/>
-      <c r="C18" s="116">
-        <v>400</v>
-      </c>
+      <c r="C18" s="116"/>
       <c r="D18" s="116"/>
-      <c r="E18" s="116">
-        <v>250</v>
-      </c>
+      <c r="E18" s="116"/>
       <c r="F18" s="116"/>
-      <c r="G18" s="116">
-        <v>1351</v>
-      </c>
+      <c r="G18" s="116"/>
       <c r="H18" s="116"/>
       <c r="I18" s="116"/>
       <c r="J18" s="116"/>
@@ -4669,7 +4534,7 @@
       <c r="Q18" s="118"/>
       <c r="R18" s="113">
         <f>SUM(B18:Q18)</f>
-        <v>2001</v>
+        <v>0</v>
       </c>
       <c r="S18" s="114"/>
       <c r="T18" s="69"/>
@@ -4679,17 +4544,13 @@
       <c r="X18" s="101"/>
     </row>
     <row r="19" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="109" t="s">
-        <v>172</v>
-      </c>
+      <c r="A19" s="109"/>
       <c r="B19" s="115"/>
       <c r="C19" s="116"/>
       <c r="D19" s="116"/>
       <c r="E19" s="116"/>
       <c r="F19" s="116"/>
-      <c r="G19" s="116">
-        <v>1565</v>
-      </c>
+      <c r="G19" s="116"/>
       <c r="H19" s="116"/>
       <c r="I19" s="116"/>
       <c r="J19" s="116"/>
@@ -4702,7 +4563,7 @@
       <c r="Q19" s="118"/>
       <c r="R19" s="113">
         <f>SUM(B19:Q19)</f>
-        <v>1565</v>
+        <v>0</v>
       </c>
       <c r="S19" s="114"/>
       <c r="T19" s="69"/>
@@ -4712,19 +4573,13 @@
       <c r="X19" s="107"/>
     </row>
     <row r="20" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="109" t="s">
-        <v>176</v>
-      </c>
+      <c r="A20" s="109"/>
       <c r="B20" s="115"/>
-      <c r="C20" s="116">
-        <v>800</v>
-      </c>
+      <c r="C20" s="116"/>
       <c r="D20" s="116"/>
       <c r="E20" s="116"/>
       <c r="F20" s="116"/>
-      <c r="G20" s="116">
-        <v>2836</v>
-      </c>
+      <c r="G20" s="116"/>
       <c r="H20" s="116"/>
       <c r="I20" s="116"/>
       <c r="J20" s="116"/>
@@ -4737,7 +4592,7 @@
       <c r="Q20" s="118"/>
       <c r="R20" s="113">
         <f t="shared" si="0"/>
-        <v>3636</v>
+        <v>0</v>
       </c>
       <c r="S20" s="114"/>
       <c r="T20" s="69"/>
@@ -4747,17 +4602,13 @@
       <c r="X20" s="101"/>
     </row>
     <row r="21" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="109" t="s">
-        <v>180</v>
-      </c>
+      <c r="A21" s="109"/>
       <c r="B21" s="115"/>
       <c r="C21" s="116"/>
       <c r="D21" s="116"/>
       <c r="E21" s="116"/>
       <c r="F21" s="116"/>
-      <c r="G21" s="116">
-        <v>1372</v>
-      </c>
+      <c r="G21" s="116"/>
       <c r="H21" s="116"/>
       <c r="I21" s="116"/>
       <c r="J21" s="116"/>
@@ -4770,25 +4621,19 @@
       <c r="Q21" s="118"/>
       <c r="R21" s="113">
         <f t="shared" si="0"/>
-        <v>1372</v>
+        <v>0</v>
       </c>
       <c r="S21" s="114"/>
       <c r="T21" s="69"/>
     </row>
     <row r="22" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="109" t="s">
-        <v>183</v>
-      </c>
+      <c r="A22" s="109"/>
       <c r="B22" s="115"/>
-      <c r="C22" s="116">
-        <v>380</v>
-      </c>
+      <c r="C22" s="116"/>
       <c r="D22" s="116"/>
       <c r="E22" s="116"/>
       <c r="F22" s="116"/>
-      <c r="G22" s="116">
-        <v>1975</v>
-      </c>
+      <c r="G22" s="116"/>
       <c r="H22" s="116"/>
       <c r="I22" s="116"/>
       <c r="J22" s="116"/>
@@ -4801,23 +4646,19 @@
       <c r="Q22" s="118"/>
       <c r="R22" s="113">
         <f>SUM(B22:Q22)</f>
-        <v>2355</v>
+        <v>0</v>
       </c>
       <c r="S22" s="114"/>
       <c r="T22" s="69"/>
     </row>
     <row r="23" spans="1:24" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="109" t="s">
-        <v>184</v>
-      </c>
+      <c r="A23" s="109"/>
       <c r="B23" s="115"/>
       <c r="C23" s="116"/>
       <c r="D23" s="116"/>
       <c r="E23" s="116"/>
       <c r="F23" s="116"/>
-      <c r="G23" s="116">
-        <v>1855</v>
-      </c>
+      <c r="G23" s="116"/>
       <c r="H23" s="116"/>
       <c r="I23" s="116"/>
       <c r="J23" s="116"/>
@@ -4830,23 +4671,19 @@
       <c r="Q23" s="118"/>
       <c r="R23" s="113">
         <f>SUM(B23:Q23)</f>
-        <v>1855</v>
+        <v>0</v>
       </c>
       <c r="S23" s="121"/>
       <c r="T23" s="69"/>
     </row>
     <row r="24" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="109" t="s">
-        <v>185</v>
-      </c>
+      <c r="A24" s="109"/>
       <c r="B24" s="115"/>
       <c r="C24" s="116"/>
       <c r="D24" s="116"/>
       <c r="E24" s="116"/>
       <c r="F24" s="116"/>
-      <c r="G24" s="116">
-        <v>2254</v>
-      </c>
+      <c r="G24" s="116"/>
       <c r="H24" s="116"/>
       <c r="I24" s="116"/>
       <c r="J24" s="116"/>
@@ -4859,7 +4696,7 @@
       <c r="Q24" s="118"/>
       <c r="R24" s="113">
         <f>SUM(B24:Q24)</f>
-        <v>2254</v>
+        <v>0</v>
       </c>
       <c r="S24" s="114"/>
       <c r="T24" s="69"/>
@@ -4868,17 +4705,13 @@
       <c r="X24" s="122"/>
     </row>
     <row r="25" spans="1:24" s="117" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="109" t="s">
-        <v>187</v>
-      </c>
+      <c r="A25" s="109"/>
       <c r="B25" s="115"/>
       <c r="C25" s="116"/>
       <c r="D25" s="116"/>
       <c r="E25" s="116"/>
       <c r="F25" s="116"/>
-      <c r="G25" s="116">
-        <v>1919</v>
-      </c>
+      <c r="G25" s="116"/>
       <c r="H25" s="116"/>
       <c r="I25" s="116"/>
       <c r="J25" s="116"/>
@@ -4891,23 +4724,19 @@
       <c r="Q25" s="118"/>
       <c r="R25" s="113">
         <f>SUM(B25:Q25)</f>
-        <v>1919</v>
+        <v>0</v>
       </c>
       <c r="S25" s="121"/>
       <c r="T25" s="69"/>
     </row>
     <row r="26" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="109" t="s">
-        <v>188</v>
-      </c>
+      <c r="A26" s="109"/>
       <c r="B26" s="115"/>
       <c r="C26" s="116"/>
       <c r="D26" s="116"/>
       <c r="E26" s="116"/>
       <c r="F26" s="116"/>
-      <c r="G26" s="116">
-        <v>2383</v>
-      </c>
+      <c r="G26" s="116"/>
       <c r="H26" s="116"/>
       <c r="I26" s="116"/>
       <c r="J26" s="116"/>
@@ -4920,23 +4749,19 @@
       <c r="Q26" s="118"/>
       <c r="R26" s="113">
         <f>SUM(B26:Q26)</f>
-        <v>2383</v>
+        <v>0</v>
       </c>
       <c r="S26" s="114"/>
       <c r="T26" s="69"/>
     </row>
     <row r="27" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="116" t="s">
-        <v>189</v>
-      </c>
+      <c r="A27" s="116"/>
       <c r="B27" s="115"/>
       <c r="C27" s="116"/>
       <c r="D27" s="116"/>
       <c r="E27" s="116"/>
       <c r="F27" s="116"/>
-      <c r="G27" s="116">
-        <v>2078</v>
-      </c>
+      <c r="G27" s="116"/>
       <c r="H27" s="116"/>
       <c r="I27" s="116"/>
       <c r="J27" s="116"/>
@@ -4949,25 +4774,19 @@
       <c r="Q27" s="118"/>
       <c r="R27" s="113">
         <f t="shared" si="0"/>
-        <v>2078</v>
+        <v>0</v>
       </c>
       <c r="S27" s="114"/>
       <c r="T27" s="69"/>
     </row>
     <row r="28" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="116" t="s">
-        <v>190</v>
-      </c>
+      <c r="A28" s="116"/>
       <c r="B28" s="115"/>
-      <c r="C28" s="116">
-        <v>380</v>
-      </c>
+      <c r="C28" s="116"/>
       <c r="D28" s="116"/>
       <c r="E28" s="116"/>
       <c r="F28" s="116"/>
-      <c r="G28" s="116">
-        <v>3172</v>
-      </c>
+      <c r="G28" s="116"/>
       <c r="H28" s="116"/>
       <c r="I28" s="116"/>
       <c r="J28" s="116"/>
@@ -4980,7 +4799,7 @@
       <c r="Q28" s="118"/>
       <c r="R28" s="113">
         <f>SUM(B28:Q28)</f>
-        <v>3552</v>
+        <v>0</v>
       </c>
       <c r="S28" s="114"/>
       <c r="T28" s="69"/>
@@ -4988,40 +4807,26 @@
       <c r="V28" s="123"/>
     </row>
     <row r="29" spans="1:24" s="108" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="116" t="s">
-        <v>193</v>
-      </c>
+      <c r="A29" s="116"/>
       <c r="B29" s="115"/>
       <c r="C29" s="116"/>
       <c r="D29" s="116"/>
       <c r="E29" s="116"/>
       <c r="F29" s="116"/>
-      <c r="G29" s="116">
-        <v>500</v>
-      </c>
+      <c r="G29" s="116"/>
       <c r="H29" s="116"/>
-      <c r="I29" s="116">
-        <v>890</v>
-      </c>
-      <c r="J29" s="116">
-        <v>500</v>
-      </c>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
       <c r="K29" s="116"/>
       <c r="L29" s="116"/>
-      <c r="M29" s="116">
-        <v>7000</v>
-      </c>
+      <c r="M29" s="116"/>
       <c r="N29" s="116"/>
       <c r="O29" s="116"/>
-      <c r="P29" s="116">
-        <v>100</v>
-      </c>
-      <c r="Q29" s="118">
-        <v>120</v>
-      </c>
+      <c r="P29" s="116"/>
+      <c r="Q29" s="118"/>
       <c r="R29" s="113">
         <f>SUM(B29:Q29)</f>
-        <v>9110</v>
+        <v>0</v>
       </c>
       <c r="S29" s="114"/>
       <c r="T29" s="123"/>
@@ -5209,15 +5014,15 @@
       </c>
       <c r="C37" s="132">
         <f t="shared" ref="C37:Q37" si="1">SUM(C6:C36)</f>
-        <v>4000</v>
+        <v>380</v>
       </c>
       <c r="D37" s="132">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E37" s="132">
         <f t="shared" si="1"/>
-        <v>1620</v>
+        <v>0</v>
       </c>
       <c r="F37" s="132">
         <f t="shared" si="1"/>
@@ -5225,7 +5030,7 @@
       </c>
       <c r="G37" s="132">
         <f t="shared" si="1"/>
-        <v>48636</v>
+        <v>1984</v>
       </c>
       <c r="H37" s="132">
         <f t="shared" si="1"/>
@@ -5233,15 +5038,15 @@
       </c>
       <c r="I37" s="132">
         <f t="shared" si="1"/>
-        <v>890</v>
+        <v>0</v>
       </c>
       <c r="J37" s="132">
         <f t="shared" si="1"/>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="K37" s="132">
         <f t="shared" si="1"/>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L37" s="132">
         <f t="shared" si="1"/>
@@ -5249,7 +5054,7 @@
       </c>
       <c r="M37" s="132">
         <f t="shared" si="1"/>
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="N37" s="132">
         <f t="shared" si="1"/>
@@ -5261,15 +5066,15 @@
       </c>
       <c r="P37" s="132">
         <f>SUM(P6:P36)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="133">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R37" s="134">
         <f>SUM(R6:R36)</f>
-        <v>63061</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -7266,6 +7071,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7278,14 +7091,6 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7297,8 +7102,8 @@
   <dimension ref="A1:S89"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7384,12 +7189,12 @@
         <v>43</v>
       </c>
       <c r="B4" s="45">
-        <v>242250</v>
+        <v>5250</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="45">
         <f>B4-C4</f>
-        <v>242250</v>
+        <v>5250</v>
       </c>
       <c r="E4" s="47"/>
       <c r="F4" s="47"/>
@@ -7411,7 +7216,7 @@
       <c r="C5" s="50"/>
       <c r="D5" s="45">
         <f t="shared" ref="D5:D31" si="0">D4+B5-C5</f>
-        <v>242250</v>
+        <v>5250</v>
       </c>
       <c r="E5" s="51"/>
       <c r="F5" s="52"/>
@@ -7431,17 +7236,17 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="B6" s="50">
-        <v>103000</v>
+        <v>310000</v>
       </c>
       <c r="C6" s="46">
-        <v>0</v>
+        <v>300000</v>
       </c>
       <c r="D6" s="45">
         <f t="shared" si="0"/>
-        <v>345250</v>
+        <v>15250</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="47"/>
@@ -7460,18 +7265,12 @@
       <c r="S6" s="39"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" s="50">
-        <v>0</v>
-      </c>
-      <c r="C7" s="46">
-        <v>0</v>
-      </c>
+      <c r="A7" s="56"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="46"/>
       <c r="D7" s="45">
         <f>D6+B7-C7</f>
-        <v>345250</v>
+        <v>15250</v>
       </c>
       <c r="E7" s="51"/>
       <c r="F7" s="52"/>
@@ -7490,18 +7289,12 @@
       <c r="S7" s="39"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8" s="58">
-        <v>508000</v>
-      </c>
-      <c r="C8" s="59">
-        <v>300000</v>
-      </c>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="45">
         <f t="shared" si="0"/>
-        <v>553250</v>
+        <v>15250</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="47"/>
@@ -7520,18 +7313,12 @@
       <c r="S8" s="39"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="58">
-        <v>0</v>
-      </c>
-      <c r="C9" s="59">
-        <v>300000</v>
-      </c>
+      <c r="A9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="45">
         <f t="shared" si="0"/>
-        <v>253250</v>
+        <v>15250</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="52"/>
@@ -7550,18 +7337,12 @@
       <c r="S9" s="9"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="58">
-        <v>299000</v>
-      </c>
-      <c r="C10" s="65">
-        <v>300000</v>
-      </c>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="45">
         <f>D9+B10-C10</f>
-        <v>252250</v>
+        <v>15250</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="52"/>
@@ -7578,18 +7359,12 @@
       <c r="S10" s="9"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="62">
-        <v>161000</v>
-      </c>
-      <c r="C11" s="65">
-        <v>300000</v>
-      </c>
+      <c r="A11" s="44"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="45">
         <f t="shared" si="0"/>
-        <v>113250</v>
+        <v>15250</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="47"/>
@@ -7608,18 +7383,12 @@
       <c r="S11" s="9"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="62">
-        <v>225000</v>
-      </c>
-      <c r="C12" s="59">
-        <v>200000</v>
-      </c>
+      <c r="A12" s="49"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="45">
         <f t="shared" si="0"/>
-        <v>138250</v>
+        <v>15250</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="8"/>
@@ -7638,18 +7407,12 @@
       <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="64">
-        <v>198000</v>
-      </c>
-      <c r="C13" s="65">
-        <v>300000</v>
-      </c>
+      <c r="A13" s="49"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
       <c r="D13" s="50">
         <f t="shared" si="0"/>
-        <v>36250</v>
+        <v>15250</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="47"/>
@@ -7668,18 +7431,12 @@
       <c r="S13" s="9"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="65">
-        <v>0</v>
-      </c>
-      <c r="C14" s="65">
-        <v>0</v>
-      </c>
+      <c r="A14" s="49"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="45">
         <f>D13+B14-C14</f>
-        <v>36250</v>
+        <v>15250</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="47"/>
@@ -7698,18 +7455,12 @@
       <c r="S14" s="9"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="46">
-        <v>615000</v>
-      </c>
-      <c r="C15" s="65">
-        <v>300000</v>
-      </c>
+      <c r="A15" s="49"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="45">
         <f>D14+B15-C15</f>
-        <v>351250</v>
+        <v>15250</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="51"/>
@@ -7728,18 +7479,12 @@
       <c r="S15" s="8"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B16" s="50">
-        <v>0</v>
-      </c>
-      <c r="C16" s="65">
-        <v>300000</v>
-      </c>
+      <c r="A16" s="49"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="45">
         <f t="shared" si="0"/>
-        <v>51250</v>
+        <v>15250</v>
       </c>
       <c r="E16" s="51"/>
       <c r="F16" s="52"/>
@@ -7758,18 +7503,12 @@
       <c r="S16" s="8"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="B17" s="50">
-        <v>249000</v>
-      </c>
-      <c r="C17" s="46">
-        <v>0</v>
-      </c>
+      <c r="A17" s="56"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="46"/>
       <c r="D17" s="45">
         <f t="shared" si="0"/>
-        <v>300250</v>
+        <v>15250</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="47"/>
@@ -7788,18 +7527,12 @@
       <c r="S17" s="8"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" s="58">
-        <v>445000</v>
-      </c>
-      <c r="C18" s="59">
-        <v>300000</v>
-      </c>
+      <c r="A18" s="56"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="45">
         <f t="shared" si="0"/>
-        <v>445250</v>
+        <v>15250</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="47"/>
@@ -7818,18 +7551,12 @@
       <c r="S18" s="9"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="B19" s="58">
-        <v>0</v>
-      </c>
-      <c r="C19" s="59">
-        <v>400000</v>
-      </c>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
       <c r="D19" s="45">
         <f t="shared" si="0"/>
-        <v>45250</v>
+        <v>15250</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="52"/>
@@ -7848,18 +7575,12 @@
       <c r="S19" s="9"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="58" t="s">
-        <v>168</v>
-      </c>
-      <c r="B20" s="58">
-        <v>275000</v>
-      </c>
-      <c r="C20" s="65">
-        <v>0</v>
-      </c>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="45">
         <f t="shared" si="0"/>
-        <v>320250</v>
+        <v>15250</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="66"/>
@@ -7878,18 +7599,12 @@
       <c r="S20" s="9"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="49" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="50">
-        <v>273000</v>
-      </c>
-      <c r="C21" s="46">
-        <v>400000</v>
-      </c>
+      <c r="A21" s="49"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="46"/>
       <c r="D21" s="45">
         <f t="shared" si="0"/>
-        <v>193250</v>
+        <v>15250</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="47"/>
@@ -7908,18 +7623,12 @@
       <c r="S21" s="9"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
-        <v>172</v>
-      </c>
-      <c r="B22" s="50">
-        <v>137000</v>
-      </c>
-      <c r="C22" s="46">
-        <v>100000</v>
-      </c>
+      <c r="A22" s="49"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="45">
         <f t="shared" si="0"/>
-        <v>230250</v>
+        <v>15250</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="60"/>
@@ -7938,18 +7647,12 @@
       <c r="S22" s="9"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="49" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" s="50">
-        <v>197000</v>
-      </c>
-      <c r="C23" s="46">
-        <v>0</v>
-      </c>
+      <c r="A23" s="49"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="46"/>
       <c r="D23" s="45">
         <f t="shared" si="0"/>
-        <v>427250</v>
+        <v>15250</v>
       </c>
       <c r="E23" s="51"/>
       <c r="F23" s="9"/>
@@ -7968,18 +7671,12 @@
       <c r="S23" s="9"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="B24" s="50">
-        <v>323000</v>
-      </c>
-      <c r="C24" s="46">
-        <v>300000</v>
-      </c>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="45">
         <f t="shared" si="0"/>
-        <v>450250</v>
+        <v>15250</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="47"/>
@@ -7998,18 +7695,12 @@
       <c r="S24" s="9"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" s="50">
-        <v>0</v>
-      </c>
-      <c r="C25" s="46">
-        <v>400000</v>
-      </c>
+      <c r="A25" s="49"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="45">
         <f t="shared" si="0"/>
-        <v>50250</v>
+        <v>15250</v>
       </c>
       <c r="E25" s="51"/>
       <c r="F25" s="9"/>
@@ -8028,18 +7719,12 @@
       <c r="S25" s="9"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="49" t="s">
-        <v>183</v>
-      </c>
-      <c r="B26" s="50">
-        <v>182000</v>
-      </c>
-      <c r="C26" s="59">
-        <v>0</v>
-      </c>
+      <c r="A26" s="49"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="45">
         <f t="shared" si="0"/>
-        <v>232250</v>
+        <v>15250</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="15"/>
@@ -8056,18 +7741,12 @@
       <c r="S26" s="9"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="49" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" s="50">
-        <v>0</v>
-      </c>
-      <c r="C27" s="59">
-        <v>0</v>
-      </c>
+      <c r="A27" s="49"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="45">
         <f>D26+B27-C27</f>
-        <v>232250</v>
+        <v>15250</v>
       </c>
       <c r="E27" s="51"/>
       <c r="F27" s="14"/>
@@ -8084,18 +7763,12 @@
       <c r="S27" s="9"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="B28" s="50">
-        <v>557000</v>
-      </c>
-      <c r="C28" s="46">
-        <v>300000</v>
-      </c>
+      <c r="A28" s="49"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="46"/>
       <c r="D28" s="45">
         <f>D27+B28-C28</f>
-        <v>489250</v>
+        <v>15250</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="70"/>
@@ -8112,18 +7785,12 @@
       <c r="S28" s="9"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="49" t="s">
-        <v>185</v>
-      </c>
-      <c r="B29" s="50">
-        <v>0</v>
-      </c>
-      <c r="C29" s="59">
-        <v>400000</v>
-      </c>
+      <c r="A29" s="49"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="59"/>
       <c r="D29" s="45">
         <f>D28+B29-C29</f>
-        <v>89250</v>
+        <v>15250</v>
       </c>
       <c r="E29" s="51"/>
       <c r="F29" s="66"/>
@@ -8140,18 +7807,12 @@
       <c r="S29" s="9"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="49" t="s">
-        <v>187</v>
-      </c>
-      <c r="B30" s="50">
-        <v>241000</v>
-      </c>
-      <c r="C30" s="46">
-        <v>0</v>
-      </c>
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="46"/>
       <c r="D30" s="45">
         <f t="shared" si="0"/>
-        <v>330250</v>
+        <v>15250</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="52"/>
@@ -8168,18 +7829,12 @@
       <c r="S30" s="9"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="49" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" s="72">
-        <v>195000</v>
-      </c>
-      <c r="C31" s="46">
-        <v>500000</v>
-      </c>
+      <c r="A31" s="49"/>
+      <c r="B31" s="72"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="45">
         <f t="shared" si="0"/>
-        <v>25250</v>
+        <v>15250</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="9"/>
@@ -8196,18 +7851,12 @@
       <c r="S31" s="9"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="B32" s="72">
-        <v>197000</v>
-      </c>
-      <c r="C32" s="59">
-        <v>0</v>
-      </c>
+      <c r="A32" s="49"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="45">
         <f>D31+B32-C32</f>
-        <v>222250</v>
+        <v>15250</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="69"/>
@@ -8224,18 +7873,12 @@
       <c r="S32" s="9"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="B33" s="72">
-        <v>463000</v>
-      </c>
-      <c r="C33" s="73">
-        <v>300000</v>
-      </c>
+      <c r="A33" s="49"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="45">
         <f t="shared" ref="D33:D82" si="1">D32+B33-C33</f>
-        <v>385250</v>
+        <v>15250</v>
       </c>
       <c r="E33" s="51"/>
       <c r="F33" s="51"/>
@@ -8252,18 +7895,12 @@
       <c r="S33" s="9"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="72">
-        <v>0</v>
-      </c>
-      <c r="C34" s="73">
-        <v>300000</v>
-      </c>
+      <c r="A34" s="49"/>
+      <c r="B34" s="72"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="45">
         <f t="shared" si="1"/>
-        <v>85250</v>
+        <v>15250</v>
       </c>
       <c r="E34" s="51"/>
       <c r="F34" s="51"/>
@@ -8280,18 +7917,12 @@
       <c r="S34" s="9"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" s="74">
-        <v>50000</v>
-      </c>
-      <c r="C35" s="73">
-        <v>130000</v>
-      </c>
+      <c r="A35" s="49"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E35" s="51"/>
       <c r="F35" s="8"/>
@@ -8308,18 +7939,12 @@
       <c r="S35" s="9"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="B36" s="50">
-        <v>0</v>
-      </c>
-      <c r="C36" s="75">
-        <v>0</v>
-      </c>
+      <c r="A36" s="49"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="75"/>
       <c r="D36" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="76"/>
@@ -8341,7 +7966,7 @@
       <c r="C37" s="46"/>
       <c r="D37" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="48"/>
@@ -8363,7 +7988,7 @@
       <c r="C38" s="46"/>
       <c r="D38" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="52"/>
@@ -8385,7 +8010,7 @@
       <c r="C39" s="46"/>
       <c r="D39" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="76"/>
@@ -8407,7 +8032,7 @@
       <c r="C40" s="46"/>
       <c r="D40" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="47"/>
@@ -8429,7 +8054,7 @@
       <c r="C41" s="46"/>
       <c r="D41" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
@@ -8451,7 +8076,7 @@
       <c r="C42" s="77"/>
       <c r="D42" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E42" s="51"/>
       <c r="F42" s="51"/>
@@ -8473,7 +8098,7 @@
       <c r="C43" s="46"/>
       <c r="D43" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
@@ -8495,7 +8120,7 @@
       <c r="C44" s="78"/>
       <c r="D44" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E44" s="51"/>
       <c r="F44" s="8"/>
@@ -8517,7 +8142,7 @@
       <c r="C45" s="46"/>
       <c r="D45" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E45" s="52"/>
       <c r="F45" s="60"/>
@@ -8539,7 +8164,7 @@
       <c r="C46" s="46"/>
       <c r="D46" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E46" s="47"/>
       <c r="F46" s="79"/>
@@ -8561,7 +8186,7 @@
       <c r="C47" s="46"/>
       <c r="D47" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="47"/>
@@ -8583,7 +8208,7 @@
       <c r="C48" s="46"/>
       <c r="D48" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E48" s="52"/>
       <c r="F48" s="9"/>
@@ -8605,7 +8230,7 @@
       <c r="C49" s="46"/>
       <c r="D49" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E49" s="47"/>
       <c r="F49" s="47"/>
@@ -8627,7 +8252,7 @@
       <c r="C50" s="46"/>
       <c r="D50" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E50" s="47"/>
       <c r="F50" s="52"/>
@@ -8649,7 +8274,7 @@
       <c r="C51" s="46"/>
       <c r="D51" s="45">
         <f>D50+B51-C51</f>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E51" s="47"/>
       <c r="F51" s="9"/>
@@ -8671,7 +8296,7 @@
       <c r="C52" s="46"/>
       <c r="D52" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E52" s="47"/>
       <c r="F52" s="52"/>
@@ -8693,7 +8318,7 @@
       <c r="C53" s="46"/>
       <c r="D53" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E53" s="52"/>
       <c r="F53" s="47"/>
@@ -8715,7 +8340,7 @@
       <c r="C54" s="46"/>
       <c r="D54" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E54" s="52"/>
       <c r="F54" s="52"/>
@@ -8737,7 +8362,7 @@
       <c r="C55" s="46"/>
       <c r="D55" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E55" s="47"/>
       <c r="F55" s="52"/>
@@ -8759,7 +8384,7 @@
       <c r="C56" s="46"/>
       <c r="D56" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E56" s="47"/>
       <c r="F56" s="47"/>
@@ -8781,7 +8406,7 @@
       <c r="C57" s="46"/>
       <c r="D57" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E57" s="52"/>
       <c r="F57" s="9"/>
@@ -8803,7 +8428,7 @@
       <c r="C58" s="46"/>
       <c r="D58" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E58" s="47"/>
       <c r="F58" s="52"/>
@@ -8825,7 +8450,7 @@
       <c r="C59" s="46"/>
       <c r="D59" s="45">
         <f>D58+B59-C59</f>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E59" s="47"/>
       <c r="F59" s="47"/>
@@ -8847,7 +8472,7 @@
       <c r="C60" s="46"/>
       <c r="D60" s="45">
         <f>D59+B60-C60</f>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E60" s="8"/>
       <c r="F60" s="9"/>
@@ -8869,7 +8494,7 @@
       <c r="C61" s="46"/>
       <c r="D61" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E61" s="52"/>
       <c r="F61" s="9"/>
@@ -8891,7 +8516,7 @@
       <c r="C62" s="46"/>
       <c r="D62" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E62" s="47"/>
       <c r="F62" s="9"/>
@@ -8913,7 +8538,7 @@
       <c r="C63" s="46"/>
       <c r="D63" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E63" s="52"/>
       <c r="F63" s="9"/>
@@ -8935,7 +8560,7 @@
       <c r="C64" s="46"/>
       <c r="D64" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E64" s="47"/>
       <c r="F64" s="9"/>
@@ -8957,7 +8582,7 @@
       <c r="C65" s="46"/>
       <c r="D65" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E65" s="47"/>
       <c r="F65" s="9"/>
@@ -8979,7 +8604,7 @@
       <c r="C66" s="46"/>
       <c r="D66" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E66" s="47"/>
       <c r="F66" s="9"/>
@@ -9001,7 +8626,7 @@
       <c r="C67" s="46"/>
       <c r="D67" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E67" s="47"/>
       <c r="F67" s="47"/>
@@ -9023,7 +8648,7 @@
       <c r="C68" s="46"/>
       <c r="D68" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E68" s="47"/>
       <c r="F68" s="47"/>
@@ -9045,7 +8670,7 @@
       <c r="C69" s="46"/>
       <c r="D69" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E69" s="47"/>
       <c r="F69" s="9"/>
@@ -9067,7 +8692,7 @@
       <c r="C70" s="46"/>
       <c r="D70" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E70" s="47"/>
       <c r="F70" s="9"/>
@@ -9089,7 +8714,7 @@
       <c r="C71" s="46"/>
       <c r="D71" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E71" s="47"/>
       <c r="F71" s="9"/>
@@ -9111,7 +8736,7 @@
       <c r="C72" s="46"/>
       <c r="D72" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E72" s="47"/>
       <c r="F72" s="9"/>
@@ -9133,7 +8758,7 @@
       <c r="C73" s="46"/>
       <c r="D73" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E73" s="8"/>
       <c r="F73" s="9"/>
@@ -9155,7 +8780,7 @@
       <c r="C74" s="46"/>
       <c r="D74" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E74" s="47"/>
       <c r="F74" s="9"/>
@@ -9177,7 +8802,7 @@
       <c r="C75" s="46"/>
       <c r="D75" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E75" s="60"/>
       <c r="F75" s="9"/>
@@ -9199,7 +8824,7 @@
       <c r="C76" s="46"/>
       <c r="D76" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E76" s="47"/>
       <c r="F76" s="9"/>
@@ -9221,7 +8846,7 @@
       <c r="C77" s="46"/>
       <c r="D77" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E77" s="47"/>
       <c r="F77" s="9"/>
@@ -9243,7 +8868,7 @@
       <c r="C78" s="46"/>
       <c r="D78" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E78" s="47"/>
       <c r="F78" s="9"/>
@@ -9265,7 +8890,7 @@
       <c r="C79" s="46"/>
       <c r="D79" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E79" s="47"/>
       <c r="F79" s="9"/>
@@ -9287,7 +8912,7 @@
       <c r="C80" s="46"/>
       <c r="D80" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E80" s="8"/>
       <c r="F80" s="9"/>
@@ -9309,7 +8934,7 @@
       <c r="C81" s="46"/>
       <c r="D81" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E81" s="8"/>
       <c r="F81" s="9"/>
@@ -9331,7 +8956,7 @@
       <c r="C82" s="46"/>
       <c r="D82" s="45">
         <f t="shared" si="1"/>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="E82" s="8"/>
       <c r="F82" s="9"/>
@@ -9351,15 +8976,15 @@
       <c r="A83" s="81"/>
       <c r="B83" s="50">
         <f>SUM(B4:B72)</f>
-        <v>6135250</v>
+        <v>315250</v>
       </c>
       <c r="C83" s="46">
         <f>SUM(C4:C77)</f>
-        <v>6130000</v>
+        <v>300000</v>
       </c>
       <c r="D83" s="82">
         <f>D82</f>
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="G83" s="8"/>
       <c r="H83" s="12"/>
@@ -9407,8 +9032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9442,7 +9067,7 @@
     </row>
     <row r="2" spans="1:13" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A2" s="357" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B2" s="358"/>
       <c r="C2" s="358"/>
@@ -9490,7 +9115,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="87">
-        <v>1292278.7875000001</v>
+        <v>1071707.4550000001</v>
       </c>
       <c r="F5" s="4"/>
       <c r="J5" s="146" t="s">
@@ -9508,14 +9133,14 @@
         <v>38</v>
       </c>
       <c r="B6" s="30">
-        <v>65459.937000000005</v>
+        <v>2012.4550000000002</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="29" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="87">
-        <v>5250</v>
+        <v>15250</v>
       </c>
       <c r="F6" s="3"/>
       <c r="J6" s="146" t="s">
@@ -9539,7 +9164,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="88">
-        <v>407102.14949999982</v>
+        <v>485880</v>
       </c>
       <c r="F7" s="3"/>
       <c r="J7" s="146" t="s">
@@ -9557,14 +9182,14 @@
         <v>39</v>
       </c>
       <c r="B8" s="30">
-        <v>63061</v>
+        <v>1885</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="29" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="89">
-        <v>386005</v>
+        <v>214922</v>
       </c>
       <c r="F8" s="3"/>
       <c r="J8" s="152" t="s">
@@ -9590,7 +9215,7 @@
         <v>40</v>
       </c>
       <c r="E9" s="186">
-        <v>81763</v>
+        <v>82368</v>
       </c>
       <c r="F9" s="22"/>
       <c r="J9" s="146" t="s">
@@ -9629,9 +9254,7 @@
       <c r="D11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="89">
-        <v>170000</v>
-      </c>
+      <c r="E11" s="89"/>
       <c r="F11" s="143"/>
       <c r="G11" s="144"/>
       <c r="H11" s="23">
@@ -9656,19 +9279,21 @@
       </c>
       <c r="B12" s="38">
         <f>B6-B8-B9</f>
-        <v>2398.9370000000054</v>
+        <v>127.45500000000015</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="89"/>
+      <c r="E12" s="89">
+        <v>130000</v>
+      </c>
       <c r="F12" s="22"/>
       <c r="J12" s="146" t="s">
         <v>127</v>
       </c>
       <c r="K12" s="185" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L12" s="185">
         <v>36095</v>
@@ -9715,7 +9340,7 @@
       </c>
       <c r="B15" s="30">
         <f>B5+B12-B13-B11</f>
-        <v>2002398.9369999999</v>
+        <v>2000127.4550000001</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="29" t="s">
@@ -9723,7 +9348,7 @@
       </c>
       <c r="E15" s="89">
         <f>E5+E6+E7+E8+E9+E10+E12-E11+E13</f>
-        <v>2002398.9369999999</v>
+        <v>2000127.4550000001</v>
       </c>
       <c r="F15" s="22"/>
       <c r="J15" s="146" t="s">
@@ -9791,7 +9416,7 @@
       <c r="D19" s="13"/>
       <c r="F19" s="26"/>
       <c r="J19" s="83" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="K19" s="83" t="s">
         <v>105</v>
@@ -9806,7 +9431,7 @@
       <c r="D20" s="13"/>
       <c r="F20" s="26"/>
       <c r="J20" s="83" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="K20" s="83" t="s">
         <v>105</v>
@@ -9821,13 +9446,13 @@
       <c r="D21" s="13"/>
       <c r="F21" s="26"/>
       <c r="J21" s="83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K21" s="83" t="s">
         <v>105</v>
       </c>
       <c r="L21" s="83">
-        <v>5638</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -9835,7 +9460,7 @@
       <c r="C22" s="27"/>
       <c r="F22" s="26"/>
       <c r="J22" s="322" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="K22" s="83" t="s">
         <v>103</v>
@@ -9856,7 +9481,7 @@
       <c r="K23" s="366"/>
       <c r="L23" s="190">
         <f>SUM(L6:L22)</f>
-        <v>81763</v>
+        <v>82368</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -10056,7 +9681,7 @@
     </row>
     <row r="5" spans="1:22" s="148" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="376" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B5" s="377"/>
       <c r="C5" s="192"/>
@@ -10352,7 +9977,7 @@
       <c r="P12" s="169"/>
       <c r="Q12" s="174"/>
       <c r="T12" s="187" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="U12" s="187">
         <v>478</v>
@@ -10540,10 +10165,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="166" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C18" s="151" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D18" s="154"/>
       <c r="E18" s="150"/>
@@ -10570,10 +10195,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="166" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C19" s="150" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D19" s="154"/>
       <c r="E19" s="150"/>
@@ -10600,10 +10225,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="166" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C20" s="155" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D20" s="177"/>
       <c r="E20" s="165"/>
@@ -10647,10 +10272,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="166" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C21" s="150" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D21" s="177"/>
       <c r="E21" s="165"/>
@@ -10684,10 +10309,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="166" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="C22" s="150" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D22" s="177"/>
       <c r="E22" s="165"/>
@@ -10740,7 +10365,7 @@
       <c r="P23" s="169"/>
       <c r="Q23" s="174"/>
       <c r="T23" s="252" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="U23" s="252">
         <v>10</v>
@@ -10754,10 +10379,10 @@
         <v>18</v>
       </c>
       <c r="B24" s="166" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C24" s="150" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D24" s="177"/>
       <c r="E24" s="165"/>
@@ -10786,7 +10411,7 @@
       </c>
       <c r="B25" s="166"/>
       <c r="C25" s="150" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="D25" s="177"/>
       <c r="E25" s="165"/>
@@ -10809,7 +10434,7 @@
       </c>
       <c r="B26" s="166"/>
       <c r="C26" s="157" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D26" s="177"/>
       <c r="E26" s="180"/>
@@ -10832,7 +10457,7 @@
       </c>
       <c r="B27" s="166"/>
       <c r="C27" s="157" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="D27" s="183"/>
       <c r="E27" s="180"/>
@@ -13114,8 +12739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD59"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13155,7 +12780,7 @@
     </row>
     <row r="2" spans="1:30" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="390" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="B2" s="390"/>
       <c r="C2" s="390"/>

--- a/April'21/30.04.2021/Bank Statement.xlsx
+++ b/April'21/30.04.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -3202,6 +3202,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3251,30 +3275,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3985,9 +3985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R37" sqref="R37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3998,70 +3998,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="327" t="s">
+      <c r="A1" s="335" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="327"/>
-      <c r="C1" s="327"/>
-      <c r="D1" s="327"/>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
-      <c r="K1" s="327"/>
-      <c r="L1" s="327"/>
-      <c r="M1" s="327"/>
-      <c r="N1" s="327"/>
-      <c r="O1" s="327"/>
-      <c r="P1" s="327"/>
-      <c r="Q1" s="327"/>
-      <c r="R1" s="327"/>
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
+      <c r="G1" s="335"/>
+      <c r="H1" s="335"/>
+      <c r="I1" s="335"/>
+      <c r="J1" s="335"/>
+      <c r="K1" s="335"/>
+      <c r="L1" s="335"/>
+      <c r="M1" s="335"/>
+      <c r="N1" s="335"/>
+      <c r="O1" s="335"/>
+      <c r="P1" s="335"/>
+      <c r="Q1" s="335"/>
+      <c r="R1" s="335"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="328" t="s">
+      <c r="A2" s="336" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="328"/>
-      <c r="E2" s="328"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328"/>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
-      <c r="M2" s="328"/>
-      <c r="N2" s="328"/>
-      <c r="O2" s="328"/>
-      <c r="P2" s="328"/>
-      <c r="Q2" s="328"/>
-      <c r="R2" s="328"/>
+      <c r="B2" s="336"/>
+      <c r="C2" s="336"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="336"/>
+      <c r="G2" s="336"/>
+      <c r="H2" s="336"/>
+      <c r="I2" s="336"/>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
+      <c r="L2" s="336"/>
+      <c r="M2" s="336"/>
+      <c r="N2" s="336"/>
+      <c r="O2" s="336"/>
+      <c r="P2" s="336"/>
+      <c r="Q2" s="336"/>
+      <c r="R2" s="336"/>
     </row>
     <row r="3" spans="1:25" s="99" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="337" t="s">
+      <c r="A3" s="345" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="338"/>
-      <c r="C3" s="338"/>
-      <c r="D3" s="338"/>
-      <c r="E3" s="338"/>
-      <c r="F3" s="338"/>
-      <c r="G3" s="338"/>
-      <c r="H3" s="338"/>
-      <c r="I3" s="338"/>
-      <c r="J3" s="338"/>
-      <c r="K3" s="338"/>
-      <c r="L3" s="338"/>
-      <c r="M3" s="338"/>
-      <c r="N3" s="338"/>
-      <c r="O3" s="338"/>
-      <c r="P3" s="338"/>
-      <c r="Q3" s="338"/>
-      <c r="R3" s="339"/>
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="346"/>
+      <c r="F3" s="346"/>
+      <c r="G3" s="346"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="346"/>
+      <c r="Q3" s="346"/>
+      <c r="R3" s="347"/>
       <c r="T3" s="100"/>
       <c r="U3" s="101"/>
       <c r="V3" s="101"/>
@@ -4070,55 +4070,55 @@
       <c r="Y3" s="102"/>
     </row>
     <row r="4" spans="1:25" s="102" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="329" t="s">
+      <c r="A4" s="337" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="331" t="s">
+      <c r="B4" s="339" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="331" t="s">
+      <c r="C4" s="339" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="325" t="s">
+      <c r="D4" s="333" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="325" t="s">
+      <c r="E4" s="333" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="325" t="s">
+      <c r="F4" s="333" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="325" t="s">
+      <c r="G4" s="333" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="325" t="s">
+      <c r="H4" s="333" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="325" t="s">
+      <c r="I4" s="333" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="325" t="s">
+      <c r="J4" s="333" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="340" t="s">
+      <c r="K4" s="348" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="342" t="s">
+      <c r="L4" s="325" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="344" t="s">
+      <c r="M4" s="327" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="346" t="s">
+      <c r="N4" s="329" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="348" t="s">
+      <c r="O4" s="331" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="333" t="s">
+      <c r="P4" s="341" t="s">
         <v>128</v>
       </c>
-      <c r="Q4" s="335" t="s">
+      <c r="Q4" s="343" t="s">
         <v>129</v>
       </c>
       <c r="R4" s="103" t="s">
@@ -4131,23 +4131,23 @@
       <c r="X4" s="101"/>
     </row>
     <row r="5" spans="1:25" s="102" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="330"/>
-      <c r="B5" s="332"/>
-      <c r="C5" s="332"/>
-      <c r="D5" s="326"/>
-      <c r="E5" s="326"/>
-      <c r="F5" s="326"/>
-      <c r="G5" s="326"/>
-      <c r="H5" s="326"/>
-      <c r="I5" s="326"/>
-      <c r="J5" s="326"/>
-      <c r="K5" s="341"/>
-      <c r="L5" s="343"/>
-      <c r="M5" s="345"/>
-      <c r="N5" s="347"/>
-      <c r="O5" s="349"/>
-      <c r="P5" s="334"/>
-      <c r="Q5" s="336"/>
+      <c r="A5" s="338"/>
+      <c r="B5" s="340"/>
+      <c r="C5" s="340"/>
+      <c r="D5" s="334"/>
+      <c r="E5" s="334"/>
+      <c r="F5" s="334"/>
+      <c r="G5" s="334"/>
+      <c r="H5" s="334"/>
+      <c r="I5" s="334"/>
+      <c r="J5" s="334"/>
+      <c r="K5" s="349"/>
+      <c r="L5" s="326"/>
+      <c r="M5" s="328"/>
+      <c r="N5" s="330"/>
+      <c r="O5" s="332"/>
+      <c r="P5" s="342"/>
+      <c r="Q5" s="344"/>
       <c r="R5" s="105" t="s">
         <v>34</v>
       </c>
@@ -7071,14 +7071,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7091,6 +7083,14 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9032,7 +9032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
